--- a/FORMACIONES/INTEGRACION CONTENIDOS DIGITALES/SEGUIMIENTO/SEGUIMIENTO.xlsx
+++ b/FORMACIONES/INTEGRACION CONTENIDOS DIGITALES/SEGUIMIENTO/SEGUIMIENTO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34e177e0cbf82b1c/ONE DRIVE COMPARTIDOS PC/SENATEC/FORMACIONES/INTEGRACION CONTENIDOS DIGITALES/SEGUIMIENTO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SharkCoder Laptop\Desktop\SENATIC\FORMACIONES\INTEGRACION CONTENIDOS DIGITALES\SEGUIMIENTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{C2433F6B-CDAC-4230-A36D-82D3542487D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB9CBFEF-E871-4A92-92A3-5D94AE4C4931}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CAEF2D-5CB9-48AB-8E2F-CCA1C28E3552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="11466" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LENG. PROGR." sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="JUNIO" sheetId="11" r:id="rId3"/>
     <sheet name="JULIO" sheetId="12" r:id="rId4"/>
     <sheet name="AGOSTO" sheetId="14" r:id="rId5"/>
-    <sheet name="COMPILADO " sheetId="15" r:id="rId6"/>
+    <sheet name="SEPTIEMBRE" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="64">
   <si>
     <t>#</t>
   </si>
@@ -217,28 +217,25 @@
     <t>AGOSTO</t>
   </si>
   <si>
-    <t>SEPTIEMBRE</t>
-  </si>
-  <si>
-    <t>OCTUBRE</t>
-  </si>
-  <si>
-    <t>NOVIEMBRE</t>
-  </si>
-  <si>
-    <t>MES</t>
-  </si>
-  <si>
     <t>Guión</t>
   </si>
   <si>
     <t>Storyboard</t>
   </si>
   <si>
-    <t>CodePen</t>
+    <t>Pymes</t>
   </si>
   <si>
-    <t>Pymes</t>
+    <t>Practica</t>
+  </si>
+  <si>
+    <t>Practica2</t>
+  </si>
+  <si>
+    <t>ANIM</t>
+  </si>
+  <si>
+    <t>VIDEOS</t>
   </si>
 </sst>
 </file>
@@ -360,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -818,12 +815,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -953,33 +963,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -993,6 +976,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1145,15 +1143,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1162,17 +1160,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
@@ -1645,69 +1633,69 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.703125" customWidth="1"/>
+    <col min="2" max="2" width="23.87890625" customWidth="1"/>
+    <col min="3" max="3" width="25.41015625" customWidth="1"/>
+    <col min="4" max="4" width="24.41015625" customWidth="1"/>
+    <col min="5" max="5" width="6.87890625" customWidth="1"/>
+    <col min="6" max="6" width="5.234375" customWidth="1"/>
+    <col min="7" max="7" width="7.41015625" customWidth="1"/>
+    <col min="8" max="8" width="5.5859375" customWidth="1"/>
+    <col min="9" max="9" width="5.41015625" customWidth="1"/>
+    <col min="10" max="10" width="5.1171875" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="4.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="54" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="50" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="51"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="57"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="5">
         <v>1</v>
       </c>
@@ -1732,9 +1720,9 @@
       <c r="L3" s="5">
         <v>8</v>
       </c>
-      <c r="M3" s="51"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="50"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1759,7 +1747,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1778,11 +1766,11 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="10">
-        <f t="shared" ref="M5:M8" si="0">5*D5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <f>5*D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1801,11 +1789,11 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <f>5*D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1824,11 +1812,11 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <f>5*D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1847,18 +1835,18 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <f>5*D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
       <c r="D9" s="29">
-        <f t="shared" ref="D9:D51" si="1">IFERROR(AVERAGE(E9:L9),0%)</f>
+        <f t="shared" ref="D9:D51" si="0">IFERROR(AVERAGE(E9:L9),0%)</f>
         <v>0</v>
       </c>
       <c r="E9" s="2"/>
@@ -1870,18 +1858,18 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="10">
-        <f t="shared" ref="M9:M17" si="2">5*D9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M9:M17" si="1">5*D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="7"/>
       <c r="D10" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="2"/>
@@ -1893,18 +1881,18 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
       <c r="D11" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="2"/>
@@ -1916,18 +1904,18 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
       <c r="D12" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="2"/>
@@ -1939,18 +1927,18 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13" s="9">
         <v>10</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="2"/>
@@ -1962,18 +1950,18 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" s="9">
         <v>11</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="2"/>
@@ -1985,18 +1973,18 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15" s="9">
         <v>12</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="2"/>
@@ -2008,18 +1996,18 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
         <v>13</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
       <c r="D16" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="2"/>
@@ -2031,18 +2019,18 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17" s="9">
         <v>14</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
       <c r="D17" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E17" s="2"/>
@@ -2054,18 +2042,18 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" s="9">
         <v>15</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="7"/>
       <c r="D18" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18" s="2"/>
@@ -2077,18 +2065,18 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="10">
-        <f t="shared" ref="M18:M51" si="3">5*D18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M18:M51" si="2">5*D18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" s="9">
         <v>16</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
       <c r="D19" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19" s="2"/>
@@ -2100,18 +2088,18 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20" s="9">
         <v>17</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="7"/>
       <c r="D20" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="2"/>
@@ -2123,18 +2111,18 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A21" s="9">
         <v>18</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="7"/>
       <c r="D21" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="2"/>
@@ -2146,18 +2134,18 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" s="9">
         <v>19</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="7"/>
       <c r="D22" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="2"/>
@@ -2169,18 +2157,18 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23" s="9">
         <v>20</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="7"/>
       <c r="D23" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="2"/>
@@ -2192,18 +2180,18 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24" s="9">
         <v>21</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="7"/>
       <c r="D24" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="2"/>
@@ -2215,18 +2203,18 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25" s="9">
         <v>22</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="7"/>
       <c r="D25" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="2"/>
@@ -2238,18 +2226,18 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26" s="9">
         <v>23</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="7"/>
       <c r="D26" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" s="2"/>
@@ -2261,18 +2249,18 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27" s="9">
         <v>24</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
       <c r="D27" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="2"/>
@@ -2284,18 +2272,18 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28" s="9">
         <v>25</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="7"/>
       <c r="D28" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="2"/>
@@ -2307,18 +2295,18 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" s="9">
         <v>26</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="7"/>
       <c r="D29" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" s="2"/>
@@ -2330,18 +2318,18 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" s="9">
         <v>27</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="7"/>
       <c r="D30" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" s="2"/>
@@ -2353,18 +2341,18 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31" s="9">
         <v>28</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="7"/>
       <c r="D31" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" s="2"/>
@@ -2376,18 +2364,18 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A32" s="9">
         <v>29</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="7"/>
       <c r="D32" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" s="2"/>
@@ -2399,18 +2387,18 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A33" s="9">
         <v>30</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="7"/>
       <c r="D33" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" s="2"/>
@@ -2422,18 +2410,18 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A34" s="9">
         <v>31</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="7"/>
       <c r="D34" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34" s="2"/>
@@ -2445,18 +2433,18 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A35" s="9">
         <v>32</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="7"/>
       <c r="D35" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35" s="2"/>
@@ -2468,18 +2456,18 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A36" s="9">
         <v>33</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="7"/>
       <c r="D36" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36" s="2"/>
@@ -2491,18 +2479,18 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A37" s="9">
         <v>34</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="7"/>
       <c r="D37" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37" s="2"/>
@@ -2514,18 +2502,18 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A38" s="9">
         <v>35</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="7"/>
       <c r="D38" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" s="2"/>
@@ -2537,18 +2525,18 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A39" s="9">
         <v>36</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="7"/>
       <c r="D39" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39" s="2"/>
@@ -2560,18 +2548,18 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A40" s="9">
         <v>37</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="7"/>
       <c r="D40" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40" s="2"/>
@@ -2583,18 +2571,18 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A41" s="9">
         <v>38</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="7"/>
       <c r="D41" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41" s="2"/>
@@ -2606,18 +2594,18 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A42" s="9">
         <v>39</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="7"/>
       <c r="D42" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42" s="2"/>
@@ -2629,18 +2617,18 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A43" s="9">
         <v>40</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="7"/>
       <c r="D43" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43" s="2"/>
@@ -2652,18 +2640,18 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A44" s="9">
         <v>41</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="7"/>
       <c r="D44" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44" s="2"/>
@@ -2675,18 +2663,18 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A45" s="9">
         <v>42</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="7"/>
       <c r="D45" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45" s="2"/>
@@ -2698,18 +2686,18 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A46" s="9">
         <v>43</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="7"/>
       <c r="D46" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46" s="2"/>
@@ -2721,18 +2709,18 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A47" s="9">
         <v>44</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="7"/>
       <c r="D47" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47" s="2"/>
@@ -2744,18 +2732,18 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A48" s="9">
         <v>45</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="7"/>
       <c r="D48" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E48" s="2"/>
@@ -2767,18 +2755,18 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A49" s="9">
         <v>46</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="7"/>
       <c r="D49" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E49" s="2"/>
@@ -2790,18 +2778,18 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A50" s="9">
         <v>47</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="7"/>
       <c r="D50" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50" s="2"/>
@@ -2813,18 +2801,18 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11">
         <v>48</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="D51" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51" s="14"/>
@@ -2836,7 +2824,7 @@
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2864,18 +2852,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:L51">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>E4=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="between">
       <formula>0</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="between">
       <formula>61%</formula>
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="between">
       <formula>31%</formula>
       <formula>60%</formula>
     </cfRule>
@@ -2917,50 +2905,50 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.41015625" customWidth="1"/>
+    <col min="2" max="2" width="39.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.234375" customWidth="1"/>
+    <col min="8" max="8" width="10.87890625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="56" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="60" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="66" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="61"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="60"/>
+    </row>
+    <row r="3" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="1">
         <v>20</v>
       </c>
@@ -2973,9 +2961,9 @@
       <c r="G3" s="1">
         <v>29</v>
       </c>
-      <c r="H3" s="62"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="61"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3003,7 +2991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -3031,7 +3019,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3059,7 +3047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -3087,7 +3075,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -3115,7 +3103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -3143,7 +3131,7 @@
         <v>4.0625</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -3171,7 +3159,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -3199,7 +3187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3227,7 +3215,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3255,7 +3243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3283,7 +3271,7 @@
         <v>2.8125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3311,7 +3299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3339,7 +3327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3367,7 +3355,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3395,7 +3383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -3423,7 +3411,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3451,7 +3439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -3479,7 +3467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="23">
         <v>19</v>
       </c>
@@ -3507,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -3535,7 +3523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="23">
         <v>21</v>
       </c>
@@ -3563,7 +3551,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -3591,7 +3579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -3619,7 +3607,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -3647,7 +3635,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -3675,7 +3663,7 @@
         <v>3.4375</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -3703,7 +3691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -3731,7 +3719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -3759,7 +3747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -3787,7 +3775,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -3815,7 +3803,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -3843,7 +3831,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -3871,7 +3859,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -3899,7 +3887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -3927,7 +3915,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -3955,7 +3943,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -4007,18 +3995,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:G39">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>D4=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="between">
       <formula>0</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="between">
       <formula>61%</formula>
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="between">
       <formula>31%</formula>
       <formula>60%</formula>
     </cfRule>
@@ -4061,58 +4049,58 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.41015625" customWidth="1"/>
+    <col min="2" max="2" width="39.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.234375" customWidth="1"/>
+    <col min="12" max="12" width="10.87890625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="56" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="60" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="73" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="61"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="60"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="1">
         <v>3</v>
       </c>
@@ -4137,9 +4125,9 @@
       <c r="K3" s="27">
         <v>26</v>
       </c>
-      <c r="L3" s="62"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="61"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4171,7 +4159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -4203,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4235,7 +4223,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -4267,7 +4255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -4299,7 +4287,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -4331,7 +4319,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -4363,7 +4351,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -4395,7 +4383,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -4427,7 +4415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -4459,7 +4447,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -4491,7 +4479,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -4523,7 +4511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -4555,7 +4543,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -4587,7 +4575,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -4619,7 +4607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -4651,7 +4639,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -4683,7 +4671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -4715,7 +4703,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="23">
         <v>19</v>
       </c>
@@ -4747,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -4779,7 +4767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4811,7 +4799,7 @@
         <v>2.8125</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -4843,7 +4831,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -4875,7 +4863,7 @@
         <v>2.8125</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -4907,7 +4895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -4939,7 +4927,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -4971,7 +4959,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -5003,7 +4991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -5035,7 +5023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -5067,7 +5055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -5099,7 +5087,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -5131,7 +5119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -5166,7 +5154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -5198,7 +5186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -5230,7 +5218,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -5262,7 +5250,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -5318,18 +5306,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:K39">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>D4=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
       <formula>0</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="between">
       <formula>61%</formula>
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
       <formula>31%</formula>
       <formula>60%</formula>
     </cfRule>
@@ -5372,59 +5360,59 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.41015625" customWidth="1"/>
+    <col min="2" max="2" width="39.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.234375" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.87890625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="56" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="60" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="59" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="73" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="61"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="60"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="1">
         <v>10</v>
       </c>
@@ -5449,9 +5437,9 @@
       <c r="K3" s="27">
         <v>26</v>
       </c>
-      <c r="L3" s="62"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="61"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5489,7 +5477,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5527,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5565,7 +5553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -5603,7 +5591,7 @@
         <v>3.958333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -5641,7 +5629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -5679,7 +5667,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -5717,7 +5705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -5755,7 +5743,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -5793,7 +5781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -5831,7 +5819,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -5869,7 +5857,7 @@
         <v>2.916666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -5907,7 +5895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -5943,7 +5931,7 @@
         <v>4.791666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -5981,7 +5969,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -6019,7 +6007,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -6057,7 +6045,7 @@
         <v>3.541666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -6095,7 +6083,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -6131,7 +6119,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -6167,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -6203,7 +6191,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -6239,7 +6227,7 @@
         <v>2.916666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -6275,7 +6263,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -6311,7 +6299,7 @@
         <v>2.0833333333333335</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -6347,7 +6335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -6383,7 +6371,7 @@
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -6419,7 +6407,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -6455,7 +6443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -6491,7 +6479,7 @@
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -6527,7 +6515,7 @@
         <v>2.916666666666667</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -6563,7 +6551,7 @@
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -6599,7 +6587,7 @@
         <v>4.791666666666667</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -6635,7 +6623,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -6671,7 +6659,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -6707,7 +6695,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -6743,7 +6731,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -6803,18 +6791,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:K39">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>D4=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
       <formula>0</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="between">
       <formula>61%</formula>
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
       <formula>31%</formula>
       <formula>60%</formula>
     </cfRule>
@@ -6853,63 +6841,63 @@
   </sheetPr>
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.41015625" customWidth="1"/>
+    <col min="2" max="2" width="39.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.234375" customWidth="1"/>
+    <col min="4" max="4" width="6.41015625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.87890625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="76" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="82" t="s">
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="85" t="s">
+    <row r="2" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="83"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="78"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="36">
         <v>5</v>
       </c>
@@ -6931,18 +6919,18 @@
       <c r="J3" s="38">
         <v>28</v>
       </c>
-      <c r="K3" s="84"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="42" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="31">
         <f>IFERROR(AVERAGE(D4:J4),0%)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -6954,17 +6942,19 @@
         <v>1</v>
       </c>
       <c r="G4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="17">
         <f>5*C4</f>
-        <v>4.375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -6984,8 +6974,12 @@
       <c r="F5" s="25">
         <v>0</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="28">
@@ -6993,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -7002,7 +6996,7 @@
       </c>
       <c r="C6" s="31">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -7016,15 +7010,17 @@
       <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="17">
         <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -7033,7 +7029,7 @@
       </c>
       <c r="C7" s="31">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.45</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -7044,16 +7040,20 @@
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="17">
         <f t="shared" si="1"/>
-        <v>3.333333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="C8" s="31">
         <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <v>0.85</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -7076,15 +7076,17 @@
       <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="17">
         <f t="shared" si="1"/>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -7093,7 +7095,7 @@
       </c>
       <c r="C9" s="31">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <v>0.75</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -7107,15 +7109,17 @@
       <c r="G9" s="4">
         <v>0.75</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="17">
         <f t="shared" si="1"/>
-        <v>3.4375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -7124,7 +7128,7 @@
       </c>
       <c r="C10" s="31">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7136,17 +7140,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="17">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -7155,7 +7161,7 @@
       </c>
       <c r="C11" s="31">
         <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -7167,17 +7173,19 @@
         <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="17">
         <f t="shared" si="1"/>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -7186,7 +7194,7 @@
       </c>
       <c r="C12" s="31">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7198,17 +7206,19 @@
         <v>1</v>
       </c>
       <c r="G12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="17">
         <f t="shared" si="1"/>
-        <v>4.375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -7217,7 +7227,7 @@
       </c>
       <c r="C13" s="31">
         <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7229,17 +7239,19 @@
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="17">
         <f t="shared" si="1"/>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -7248,7 +7260,7 @@
       </c>
       <c r="C14" s="31">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="D14" s="4">
         <v>0.75</v>
@@ -7259,16 +7271,20 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="17">
         <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -7277,10 +7293,10 @@
       </c>
       <c r="C15" s="31">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -7289,17 +7305,19 @@
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="17">
         <f t="shared" si="1"/>
-        <v>3.4375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -7308,7 +7326,7 @@
       </c>
       <c r="C16" s="31">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7320,17 +7338,19 @@
         <v>1</v>
       </c>
       <c r="G16" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="17">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -7339,7 +7359,7 @@
       </c>
       <c r="C17" s="31">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.45</v>
       </c>
       <c r="D17" s="4">
         <v>0.25</v>
@@ -7351,17 +7371,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="17">
         <f t="shared" si="1"/>
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -7370,7 +7392,7 @@
       </c>
       <c r="C18" s="31">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -7382,17 +7404,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="17">
         <f t="shared" si="1"/>
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -7412,8 +7436,12 @@
       <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="17">
@@ -7421,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -7430,7 +7458,7 @@
       </c>
       <c r="C20" s="31">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -7442,17 +7470,19 @@
         <v>1</v>
       </c>
       <c r="G20" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="H20" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="17">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -7461,7 +7491,7 @@
       </c>
       <c r="C21" s="31">
         <f t="shared" si="0"/>
-        <v>0.5625</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -7473,17 +7503,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="H21" s="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="17">
         <f t="shared" si="1"/>
-        <v>2.8125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -7506,7 +7538,9 @@
       <c r="G22" s="25">
         <v>0</v>
       </c>
-      <c r="H22" s="25"/>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="28">
@@ -7514,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -7523,7 +7557,7 @@
       </c>
       <c r="C23" s="31">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -7535,17 +7569,19 @@
         <v>1</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="17">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -7554,7 +7590,7 @@
       </c>
       <c r="C24" s="31">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D24" s="25">
         <v>0.5</v>
@@ -7565,16 +7601,20 @@
       <c r="F24" s="25">
         <v>0</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="25">
+        <v>1</v>
+      </c>
+      <c r="H24" s="25">
+        <v>1</v>
+      </c>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="28">
         <f t="shared" si="1"/>
-        <v>0.83333333333333326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -7583,7 +7623,7 @@
       </c>
       <c r="C25" s="31">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.8</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -7595,17 +7635,19 @@
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="17">
         <f t="shared" si="1"/>
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -7625,8 +7667,12 @@
       <c r="F26" s="4">
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="17">
@@ -7634,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -7657,7 +7703,9 @@
       <c r="G27" s="4">
         <v>1</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="17">
@@ -7665,7 +7713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -7674,7 +7722,7 @@
       </c>
       <c r="C28" s="31">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -7688,15 +7736,17 @@
       <c r="G28" s="4">
         <v>0.75</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="17">
         <f t="shared" si="1"/>
-        <v>3.4375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -7705,7 +7755,7 @@
       </c>
       <c r="C29" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -7716,16 +7766,20 @@
       <c r="F29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="G29" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -7734,7 +7788,7 @@
       </c>
       <c r="C30" s="31">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -7746,17 +7800,19 @@
         <v>1</v>
       </c>
       <c r="G30" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="H30" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="17">
         <f t="shared" si="1"/>
-        <v>4.6875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -7765,7 +7821,7 @@
       </c>
       <c r="C31" s="31">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -7779,15 +7835,17 @@
       <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="17">
         <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -7796,7 +7854,7 @@
       </c>
       <c r="C32" s="31">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -7807,16 +7865,20 @@
       <c r="F32" s="4">
         <v>0</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="17">
         <f t="shared" si="1"/>
-        <v>3.333333333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -7825,7 +7887,7 @@
       </c>
       <c r="C33" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -7839,15 +7901,17 @@
       <c r="G33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -7856,7 +7920,7 @@
       </c>
       <c r="C34" s="31">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -7868,17 +7932,19 @@
         <v>1</v>
       </c>
       <c r="G34" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H34" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="17">
         <f t="shared" si="1"/>
-        <v>4.375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -7887,7 +7953,7 @@
       </c>
       <c r="C35" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -7898,16 +7964,20 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -7916,7 +7986,7 @@
       </c>
       <c r="C36" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -7927,16 +7997,20 @@
       <c r="F36" s="4">
         <v>1</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="G36" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="17">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -7945,7 +8019,7 @@
       </c>
       <c r="C37" s="31">
         <f t="shared" si="0"/>
-        <v>0.4375</v>
+        <v>0.6</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -7954,20 +8028,22 @@
         <v>0</v>
       </c>
       <c r="F37" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G37" s="4">
         <v>0.5</v>
       </c>
-      <c r="H37" s="4"/>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="17">
         <f t="shared" si="1"/>
-        <v>2.1875</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -7976,7 +8052,7 @@
       </c>
       <c r="C38" s="31">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.8</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -7985,18 +8061,22 @@
         <v>0</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="17">
         <f t="shared" si="1"/>
-        <v>1.6666666666666665</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
         <v>36</v>
       </c>
@@ -8007,19 +8087,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D39" s="46">
-        <v>1</v>
-      </c>
-      <c r="E39" s="46">
-        <v>1</v>
-      </c>
-      <c r="F39" s="46">
-        <v>1</v>
-      </c>
-      <c r="G39" s="46">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4"/>
+      <c r="D39" s="39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="39">
+        <v>1</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="17">
@@ -8027,18 +8109,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="47" t="s">
+    <row r="40" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="40" t="s">
         <v>61</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="47" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8065,18 +8150,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:J39">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>D4=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
       <formula>0</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
       <formula>61%</formula>
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>31%</formula>
       <formula>60%</formula>
     </cfRule>
@@ -8109,1146 +8194,1110 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B3361C-CF19-4A72-A119-C8461424AAA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591E867D-C63B-4A11-9618-A0811C7D9910}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.41015625" customWidth="1"/>
+    <col min="2" max="2" width="39.87890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.234375" customWidth="1"/>
+    <col min="4" max="4" width="5.46875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.87890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.234375" customWidth="1"/>
+    <col min="7" max="7" width="4.87890625" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
+    <col min="9" max="10" width="4.703125" customWidth="1"/>
+    <col min="11" max="12" width="4.5859375" customWidth="1"/>
+    <col min="13" max="13" width="10.87890625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="56" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="90" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="88" t="s">
+      <c r="D1" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="81" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="89"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="89"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    <row r="2" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="82"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="36">
+        <v>2</v>
+      </c>
+      <c r="E3" s="37">
+        <v>4</v>
+      </c>
+      <c r="F3" s="37">
+        <v>9</v>
+      </c>
+      <c r="G3" s="37">
+        <v>11</v>
+      </c>
+      <c r="H3" s="37">
+        <v>16</v>
+      </c>
+      <c r="I3" s="37">
+        <v>18</v>
+      </c>
+      <c r="J3" s="43">
+        <v>23</v>
+      </c>
+      <c r="K3" s="43">
+        <v>25</v>
+      </c>
+      <c r="L3" s="38">
+        <v>30</v>
+      </c>
+      <c r="M3" s="83"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29">
-        <f>IFERROR(AVERAGE(D4:J4),0%)</f>
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="D4" s="39">
-        <v>1</v>
-      </c>
-      <c r="E4" s="39">
-        <v>1</v>
-      </c>
-      <c r="F4" s="39">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="41">
+      <c r="C4" s="31">
+        <f>IFERROR(AVERAGE(D4:L4),0%)</f>
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="17">
         <f>5*C4</f>
-        <v>4.7222222222222223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="29">
-        <f t="shared" ref="C5:C39" si="0">IFERROR(AVERAGE(D5:J5),0%)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D5" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="40">
-        <v>0</v>
-      </c>
-      <c r="F5" s="40">
-        <v>0</v>
-      </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="42">
-        <f t="shared" ref="K5:K39" si="1">5*C5</f>
-        <v>0.41666666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="C5" s="31">
+        <f t="shared" ref="C5:C39" si="0">IFERROR(AVERAGE(D5:L5),0%)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="28">
+        <f t="shared" ref="M5:M39" si="1">5*C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="29">
-        <f t="shared" si="0"/>
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="D6" s="39">
-        <v>1</v>
-      </c>
-      <c r="E6" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="F6" s="39">
-        <v>1</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="41">
-        <f t="shared" si="1"/>
-        <v>4.895833333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="C6" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="29">
-        <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D7" s="39">
-        <v>0.875</v>
-      </c>
-      <c r="E7" s="39">
-        <v>1</v>
-      </c>
-      <c r="F7" s="39">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="41">
-        <f t="shared" si="1"/>
-        <v>4.4444444444444446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="C7" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29">
-        <f t="shared" si="0"/>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D8" s="39">
-        <v>1</v>
-      </c>
-      <c r="E8" s="39">
-        <v>0.875</v>
-      </c>
-      <c r="F8" s="39">
-        <v>1</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="41">
-        <f t="shared" si="1"/>
-        <v>4.791666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="C8" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="29">
-        <f t="shared" si="0"/>
-        <v>0.8125</v>
-      </c>
-      <c r="D9" s="39">
-        <v>0.8125</v>
-      </c>
-      <c r="E9" s="39">
-        <v>0.875</v>
-      </c>
-      <c r="F9" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="41">
-        <f t="shared" si="1"/>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="C9" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="29">
-        <f t="shared" si="0"/>
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D10" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="E10" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="F10" s="39">
-        <v>1</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="41">
-        <f t="shared" si="1"/>
-        <v>4.479166666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="C10" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="29">
-        <f t="shared" si="0"/>
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="D11" s="39">
-        <v>1</v>
-      </c>
-      <c r="E11" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="F11" s="39">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="41">
-        <f t="shared" si="1"/>
-        <v>4.3055555555555554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="C11" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="29">
-        <f t="shared" si="0"/>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D12" s="39">
-        <v>0.875</v>
-      </c>
-      <c r="E12" s="39">
-        <v>1</v>
-      </c>
-      <c r="F12" s="39">
-        <v>1</v>
-      </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="41">
-        <f t="shared" si="1"/>
-        <v>4.791666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="C12" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="29">
-        <f t="shared" si="0"/>
-        <v>0.90277777777777779</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="39">
-        <v>0.875</v>
-      </c>
-      <c r="F13" s="39">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="41">
-        <f t="shared" si="1"/>
-        <v>4.5138888888888893</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="C13" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="29">
-        <f t="shared" si="0"/>
-        <v>0.50694444444444453</v>
-      </c>
-      <c r="D14" s="39">
-        <v>0.5625</v>
-      </c>
-      <c r="E14" s="39">
-        <v>0.375</v>
-      </c>
-      <c r="F14" s="39">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="41">
-        <f t="shared" si="1"/>
-        <v>2.5347222222222228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="C14" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D15" s="39">
-        <v>1</v>
-      </c>
-      <c r="E15" s="39">
-        <v>1</v>
-      </c>
-      <c r="F15" s="39">
-        <v>1</v>
-      </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="41">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="C15" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="29">
-        <f t="shared" si="0"/>
-        <v>0.96527777777777779</v>
-      </c>
-      <c r="D16" s="39">
-        <v>1</v>
-      </c>
-      <c r="E16" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="F16" s="39">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="41">
-        <f t="shared" si="1"/>
-        <v>4.8263888888888893</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="C16" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29">
-        <f t="shared" si="0"/>
-        <v>0.73611111111111116</v>
-      </c>
-      <c r="D17" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="E17" s="39">
-        <v>0.4375</v>
-      </c>
-      <c r="F17" s="39">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="41">
-        <f t="shared" si="1"/>
-        <v>3.6805555555555558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="C17" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="29">
-        <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D18" s="39">
-        <v>1</v>
-      </c>
-      <c r="E18" s="39">
-        <v>1</v>
-      </c>
-      <c r="F18" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="41">
-        <f t="shared" si="1"/>
-        <v>4.583333333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="C18" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="29">
-        <f t="shared" si="0"/>
-        <v>0.79861111111111116</v>
-      </c>
-      <c r="D19" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="E19" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="F19" s="39">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="41">
-        <f t="shared" si="1"/>
-        <v>3.9930555555555558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="C19" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="29">
-        <f t="shared" si="0"/>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D20" s="39">
-        <v>1</v>
-      </c>
-      <c r="E20" s="39">
-        <v>1</v>
-      </c>
-      <c r="F20" s="39">
-        <v>0.875</v>
-      </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="41">
-        <f t="shared" si="1"/>
-        <v>4.791666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="C20" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="29">
-        <f t="shared" si="0"/>
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="D21" s="39">
-        <v>1</v>
-      </c>
-      <c r="E21" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="F21" s="39">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="41">
-        <f t="shared" si="1"/>
-        <v>4.3055555555555554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="C21" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="40">
-        <v>0</v>
-      </c>
-      <c r="E22" s="40">
-        <v>0</v>
-      </c>
-      <c r="F22" s="40">
-        <v>0</v>
-      </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="C22" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="29">
-        <f t="shared" si="0"/>
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="D23" s="39">
-        <v>1</v>
-      </c>
-      <c r="E23" s="39">
-        <v>1</v>
-      </c>
-      <c r="F23" s="39">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="41">
-        <f t="shared" si="1"/>
-        <v>4.7222222222222223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="C23" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="29">
-        <f t="shared" si="0"/>
-        <v>0.46527777777777785</v>
-      </c>
-      <c r="D24" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E24" s="40">
-        <v>0.5625</v>
-      </c>
-      <c r="F24" s="40">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="42">
-        <f t="shared" si="1"/>
-        <v>2.3263888888888893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+      <c r="C24" s="31">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="28">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="29">
-        <f t="shared" si="0"/>
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="D25" s="39">
-        <v>1</v>
-      </c>
-      <c r="E25" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="F25" s="39">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="41">
-        <f t="shared" si="1"/>
-        <v>4.3055555555555554</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="C25" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="29">
-        <f t="shared" si="0"/>
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="D26" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="E26" s="39">
-        <v>0.5625</v>
-      </c>
-      <c r="F26" s="39">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="41">
-        <f t="shared" si="1"/>
-        <v>2.8819444444444446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="C26" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="29">
-        <f t="shared" si="0"/>
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="D27" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="E27" s="39">
-        <v>1</v>
-      </c>
-      <c r="F27" s="39">
-        <v>1</v>
-      </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="41">
-        <f t="shared" si="1"/>
-        <v>4.895833333333333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="C27" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="29">
-        <f t="shared" si="0"/>
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D28" s="39">
-        <v>0.6875</v>
-      </c>
-      <c r="E28" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="F28" s="39">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="41">
-        <f t="shared" si="1"/>
-        <v>3.5069444444444442</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+      <c r="C28" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="29">
-        <f t="shared" si="0"/>
-        <v>0.90277777777777779</v>
-      </c>
-      <c r="D29" s="39">
-        <v>1</v>
-      </c>
-      <c r="E29" s="39">
-        <v>0.875</v>
-      </c>
-      <c r="F29" s="39">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="41">
-        <f t="shared" si="1"/>
-        <v>4.5138888888888893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="C29" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D30" s="39">
-        <v>1</v>
-      </c>
-      <c r="E30" s="39">
-        <v>1</v>
-      </c>
-      <c r="F30" s="39">
-        <v>1</v>
-      </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="41">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="C30" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="29">
-        <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D31" s="39">
-        <v>1</v>
-      </c>
-      <c r="E31" s="39">
-        <v>1</v>
-      </c>
-      <c r="F31" s="39">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="41">
-        <f t="shared" si="1"/>
-        <v>4.4444444444444446</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="C31" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="29">
-        <f t="shared" si="0"/>
-        <v>0.84027777777777779</v>
-      </c>
-      <c r="D32" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="E32" s="39">
-        <v>1</v>
-      </c>
-      <c r="F32" s="39">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="41">
-        <f t="shared" si="1"/>
-        <v>4.2013888888888893</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="C32" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="29">
-        <f t="shared" si="0"/>
-        <v>0.80555555555555547</v>
-      </c>
-      <c r="D33" s="39">
-        <v>0.875</v>
-      </c>
-      <c r="E33" s="39">
-        <v>0.875</v>
-      </c>
-      <c r="F33" s="39">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="41">
-        <f t="shared" si="1"/>
-        <v>4.0277777777777777</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="C33" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="29">
-        <f t="shared" si="0"/>
-        <v>0.96527777777777779</v>
-      </c>
-      <c r="D34" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="E34" s="39">
-        <v>1</v>
-      </c>
-      <c r="F34" s="39">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="41">
-        <f t="shared" si="1"/>
-        <v>4.8263888888888893</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="C34" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="29">
-        <f t="shared" si="0"/>
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="D35" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="E35" s="39">
-        <v>0.8125</v>
-      </c>
-      <c r="F35" s="39">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="41">
-        <f t="shared" si="1"/>
-        <v>4.3055555555555554</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="C35" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="29">
-        <f t="shared" si="0"/>
-        <v>0.94444444444444453</v>
-      </c>
-      <c r="D36" s="39">
-        <v>1</v>
-      </c>
-      <c r="E36" s="39">
-        <v>1</v>
-      </c>
-      <c r="F36" s="39">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="41">
-        <f t="shared" si="1"/>
-        <v>4.7222222222222223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="C36" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="29">
-        <f t="shared" si="0"/>
-        <v>0.8125</v>
-      </c>
-      <c r="D37" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="E37" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="F37" s="39">
-        <v>0.75</v>
-      </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="41">
-        <f t="shared" si="1"/>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="C37" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="29">
-        <f t="shared" si="0"/>
-        <v>0.8125</v>
-      </c>
-      <c r="D38" s="39">
-        <v>0.9375</v>
-      </c>
-      <c r="E38" s="39">
-        <v>0.625</v>
-      </c>
-      <c r="F38" s="39">
-        <v>0.875</v>
-      </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="41">
-        <f t="shared" si="1"/>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+      <c r="C38" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="30">
-        <f t="shared" si="0"/>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D39" s="44">
-        <v>1</v>
-      </c>
-      <c r="E39" s="44">
-        <v>0.875</v>
-      </c>
-      <c r="F39" s="44">
-        <v>1</v>
-      </c>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45">
-        <f t="shared" si="1"/>
-        <v>4.791666666666667</v>
-      </c>
+      <c r="C39" s="31">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D39" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="17">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="46"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="D1:J2"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="D1:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C39">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9256,46 +9305,40 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4CACB712-2F51-4462-A3DB-A9345CB2FCC1}</x14:id>
+          <x14:id>{343A7371-D4CD-4E41-8F50-019187F367D7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:J39">
-    <cfRule type="expression" dxfId="4" priority="2">
+  <conditionalFormatting sqref="D4:L39">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>D4=""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
       <formula>0</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>61%</formula>
       <formula>100%</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>31%</formula>
       <formula>60%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K39">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:J39" xr:uid="{5CFFC930-34B0-4CEC-97C7-029A545A75F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:L39" xr:uid="{B2EF361F-FB97-43DB-946C-C8474EDF0A32}">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="122" scale="84" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4CACB712-2F51-4462-A3DB-A9345CB2FCC1}">
+          <x14:cfRule type="dataBar" id="{343A7371-D4CD-4E41-8F50-019187F367D7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
